--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\Data and graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDA57D-9AF7-4169-88B9-C4165C8FBCD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BE3CE7-0650-49BF-9ED3-5FB737FA8781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="3" activeTab="6" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="2" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Emergence_NG" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Competition_Females" sheetId="3" r:id="rId4"/>
     <sheet name="G_Fst" sheetId="6" r:id="rId5"/>
     <sheet name="Competition_Fst" sheetId="7" r:id="rId6"/>
-    <sheet name="K_Coexistence" sheetId="8" r:id="rId7"/>
-    <sheet name="G_Coexistence" sheetId="10" r:id="rId8"/>
-    <sheet name="Competition_Coexistence" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Emergence</t>
   </si>
@@ -47,12 +44,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>Early</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
     <t>Bimodal</t>
   </si>
   <si>
@@ -95,22 +86,22 @@
     <t>Fstd_max</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Elen</t>
-  </si>
-  <si>
-    <t>Elength</t>
-  </si>
-  <si>
-    <t>sd_L</t>
-  </si>
-  <si>
-    <t>yminEL</t>
-  </si>
-  <si>
-    <t>ymaxEL</t>
+    <t>Delayed-dawn</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>linkage_percent</t>
+  </si>
+  <si>
+    <t>sd_link_p</t>
+  </si>
+  <si>
+    <t>linkage_number</t>
+  </si>
+  <si>
+    <t>sd_link_n</t>
   </si>
 </sst>
 </file>
@@ -146,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +458,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +482,10 @@
         <v>0.1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -504,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -518,13 +510,13 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -549,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -563,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -577,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -591,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -605,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -616,10 +608,10 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -630,10 +622,10 @@
         <v>0.2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -644,10 +636,10 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -661,7 +653,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -675,7 +667,7 @@
         <v>0.15</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>3.5</v>
@@ -689,7 +681,7 @@
         <v>0.61</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>4.9000000000000004</v>
@@ -703,7 +695,7 @@
         <v>0.68</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>4.7</v>
@@ -717,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -731,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -745,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -759,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -773,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -787,7 +779,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -801,7 +793,7 @@
         <v>0.85</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>3.5</v>
@@ -815,7 +807,7 @@
         <v>0.39</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>4.9000000000000004</v>
@@ -829,7 +821,7 @@
         <v>0.32</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>4.7</v>
@@ -843,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -857,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -872,15 +864,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92860D97-FB49-4DA3-8E4A-5679435D5B31}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -897,7 +889,7 @@
         <v>0.17</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -908,7 +900,7 @@
         <v>0.3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,7 +911,7 @@
         <v>0.44</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -930,7 +922,7 @@
         <v>0.63</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -941,7 +933,7 @@
         <v>0.8</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,7 +944,7 @@
         <v>0.99</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -963,7 +955,7 @@
         <v>0.99</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -974,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -985,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -996,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,7 +999,7 @@
         <v>0.97</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,7 +1010,7 @@
         <v>0.43</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,7 +1021,7 @@
         <v>0.01</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1040,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1051,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1062,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1073,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1117,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1128,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1139,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1150,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1161,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,7 +1164,7 @@
         <v>0.03</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1183,7 +1175,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1194,7 +1186,7 @@
         <v>0.99</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1205,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1216,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1227,7 +1219,7 @@
         <v>0.83</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1238,7 +1230,7 @@
         <v>0.7</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,7 +1241,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1260,7 +1252,7 @@
         <v>0.37</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1271,7 +1263,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1282,7 +1274,7 @@
         <v>0.01</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1293,7 +1285,7 @@
         <v>0.01</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1304,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1315,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1326,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1337,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1348,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1359,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1370,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1381,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1391,17 +1383,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599BC85A-4B5C-4CEF-8191-0A0E987080DE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1410,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1428,7 +1420,7 @@
         <v>4.8280430000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.01</v>
       </c>
@@ -1443,7 +1435,7 @@
         <v>2.3748680000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.02</v>
       </c>
@@ -1458,7 +1450,7 @@
         <v>2.5514700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.05</v>
       </c>
@@ -1473,7 +1465,7 @@
         <v>2.7129319999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.1</v>
       </c>
@@ -1487,8 +1479,9 @@
         <f t="shared" si="0"/>
         <v>4.2708310000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -1503,7 +1496,7 @@
         <v>4.6647619999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1518,7 +1511,7 @@
         <v>4.9355849999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1532,9 +1525,22 @@
         <f t="shared" si="0"/>
         <v>1.7058719999999998</v>
       </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1550,16 +1556,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,32 +1650,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E909FA-AE50-4FC0-99AF-D397991966B6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1677,7 +1695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1693,8 +1711,20 @@
       <c r="E3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>90.91</v>
+      </c>
+      <c r="G3">
+        <v>0.03</v>
+      </c>
+      <c r="H3">
+        <v>5.8</v>
+      </c>
+      <c r="I3">
+        <v>3.1873999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1710,8 +1740,20 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>96.25</v>
+      </c>
+      <c r="G4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.1037999999999997</v>
+      </c>
+      <c r="I4">
+        <v>2.7614000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1727,8 +1769,20 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>87.5</v>
+      </c>
+      <c r="G5">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.8209999999999997</v>
+      </c>
+      <c r="I5">
+        <v>2.5173000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1744,8 +1798,20 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>82.11</v>
+      </c>
+      <c r="G6">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2.7549000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1761,8 +1827,20 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>54.95</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>2.58</v>
+      </c>
+      <c r="I7">
+        <v>2.2279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1778,8 +1856,20 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>48.28</v>
+      </c>
+      <c r="G8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.09</v>
+      </c>
+      <c r="I8">
+        <v>2.2759999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1795,8 +1885,20 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>34.83</v>
+      </c>
+      <c r="G9">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="I9">
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1811,6 +1913,38 @@
       </c>
       <c r="E10">
         <v>0</v>
+      </c>
+      <c r="F10">
+        <v>45.88</v>
+      </c>
+      <c r="G10">
+        <v>4.87E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I10">
+        <v>2.0539999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="G11">
+        <v>4.53E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="I11">
+        <v>2.476</v>
       </c>
     </row>
   </sheetData>
@@ -1830,16 +1964,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,457 +2086,6 @@
       </c>
       <c r="D9">
         <v>0.176679375066778</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F581FF5A-4BBE-4A75-A172-EA481FFA2F12}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>143.07</v>
-      </c>
-      <c r="C2">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>178.66</v>
-      </c>
-      <c r="C3">
-        <v>11.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5000</v>
-      </c>
-      <c r="B4">
-        <v>150.69</v>
-      </c>
-      <c r="C4">
-        <v>9.73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7D2FD2-3A13-4A85-AAD2-DCBD103AF888}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <v>179.73769999999999</v>
-      </c>
-      <c r="C3">
-        <v>10.827389999999999</v>
-      </c>
-      <c r="D3">
-        <f>B3-C3</f>
-        <v>168.91030999999998</v>
-      </c>
-      <c r="E3">
-        <f>B3+C3</f>
-        <v>190.56509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <v>225.00757999999999</v>
-      </c>
-      <c r="C4">
-        <v>3.8590100000000001</v>
-      </c>
-      <c r="D4">
-        <f>B4-C4</f>
-        <v>221.14856999999998</v>
-      </c>
-      <c r="E4">
-        <f>B4+C4</f>
-        <v>228.86659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <v>275.10500000000002</v>
-      </c>
-      <c r="C5">
-        <v>3.9203299999999999</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D11" si="0">B5-C5</f>
-        <v>271.18467000000004</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E11" si="1">B5+C5</f>
-        <v>279.02533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>319.74400000000003</v>
-      </c>
-      <c r="C6">
-        <v>3.4544899999999998</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>316.28951000000001</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>323.19849000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <v>238.91602</v>
-      </c>
-      <c r="C7">
-        <v>4.5912600000000001</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>234.32476</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>243.50728000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.7</v>
-      </c>
-      <c r="B8">
-        <v>216.68687</v>
-      </c>
-      <c r="C8">
-        <v>11.446440000000001</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>205.24043</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>228.13330999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <v>210.054</v>
-      </c>
-      <c r="C9">
-        <v>4.8625299999999996</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>205.19147000000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>214.91652999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.9</v>
-      </c>
-      <c r="B10">
-        <v>143.29</v>
-      </c>
-      <c r="C10">
-        <v>9.0990000000000002</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>134.191</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>152.38899999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>153.63</v>
-      </c>
-      <c r="C11">
-        <v>9.8960000000000008</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>143.73399999999998</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>163.52600000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E29042-B0FF-44C4-975C-91924A14DD01}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>172.26</v>
-      </c>
-      <c r="C2">
-        <v>9.9</v>
-      </c>
-      <c r="D2">
-        <f>B2-C2</f>
-        <v>162.35999999999999</v>
-      </c>
-      <c r="E2">
-        <f>B2+C2</f>
-        <v>182.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="B3">
-        <v>247.12</v>
-      </c>
-      <c r="C3">
-        <v>13.01</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3-C3</f>
-        <v>234.11</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">B3+C3</f>
-        <v>260.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="B4">
-        <v>199.24</v>
-      </c>
-      <c r="C4">
-        <v>11.54</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>187.70000000000002</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>210.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="B5">
-        <v>171.76</v>
-      </c>
-      <c r="C5">
-        <v>11.19</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>160.57</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>182.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="B6">
-        <v>125.91</v>
-      </c>
-      <c r="C6">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>117.38</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>134.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="B7">
-        <v>115.84</v>
-      </c>
-      <c r="C7">
-        <v>7.69</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>108.15</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>123.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B8">
-        <v>73.06</v>
-      </c>
-      <c r="C8">
-        <v>4.13</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>68.930000000000007</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>77.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>47.375</v>
-      </c>
-      <c r="C9">
-        <v>2.41</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>44.965000000000003</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>49.784999999999997</v>
       </c>
     </row>
   </sheetData>
